--- a/data/parkir.xlsx
+++ b/data/parkir.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -419,6 +419,9 @@
         <v>Tanggal Masuk</v>
       </c>
       <c r="F1" t="str">
+        <v>__EMPTY</v>
+      </c>
+      <c r="G1" t="str">
         <v>Tanggal Keluar</v>
       </c>
     </row>
@@ -427,18 +430,21 @@
         <v>KP001</v>
       </c>
       <c r="B2" t="str">
-        <v>AB 2025 XZ</v>
+        <v>G 555 JJ</v>
       </c>
       <c r="C2" t="str">
-        <v>Honda</v>
+        <v>veset</v>
       </c>
       <c r="D2" t="str">
-        <v>mobil</v>
+        <v>motor</v>
       </c>
       <c r="E2" t="str">
-        <v>2025-06-22 23:41:24</v>
+        <v>2025-06-26 22:06:44</v>
       </c>
       <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
         <v/>
       </c>
     </row>
@@ -447,18 +453,21 @@
         <v>KP002</v>
       </c>
       <c r="B3" t="str">
-        <v>AB 2025 CD</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>Honda</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>Truk/Bus/Lainnya</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>2025-06-23 00:17:04</v>
+        <v/>
       </c>
       <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
         <v/>
       </c>
     </row>
@@ -467,18 +476,21 @@
         <v>KP003</v>
       </c>
       <c r="B4" t="str">
-        <v>AB 2025 XZ</v>
+        <v>C 33 BK</v>
       </c>
       <c r="C4" t="str">
-        <v>Honda</v>
+        <v>verio</v>
       </c>
       <c r="D4" t="str">
-        <v>mobil</v>
+        <v>motor</v>
       </c>
       <c r="E4" t="str">
-        <v>2025-06-22 23:41:25</v>
+        <v>2025-06-26 21:44:51</v>
       </c>
       <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
         <v/>
       </c>
     </row>
@@ -487,18 +499,21 @@
         <v>KP004</v>
       </c>
       <c r="B5" t="str">
-        <v>AB 2025 XZ</v>
+        <v>A 123 BB</v>
       </c>
       <c r="C5" t="str">
-        <v>Honda</v>
+        <v>yamaha</v>
       </c>
       <c r="D5" t="str">
-        <v>mobil</v>
+        <v>motor</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-06-22 23:41:36</v>
+        <v>2025-06-26 22:16:10</v>
       </c>
       <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
         <v/>
       </c>
     </row>
@@ -507,18 +522,21 @@
         <v>KP005</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>AA 6666 YY</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>yamaha</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>motor</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>2025-06-26 22:16:21</v>
       </c>
       <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
         <v/>
       </c>
     </row>
@@ -527,18 +545,21 @@
         <v>KP006</v>
       </c>
       <c r="B7" t="str">
-        <v>AB 2025 XZ</v>
+        <v>AB 777 J</v>
       </c>
       <c r="C7" t="str">
-        <v>Honda</v>
+        <v>Vario</v>
       </c>
       <c r="D7" t="str">
-        <v>mobil</v>
+        <v>motor</v>
       </c>
       <c r="E7" t="str">
-        <v>2025-06-22 23:41:36</v>
+        <v>2025-06-27 14:12:16</v>
       </c>
       <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
         <v/>
       </c>
     </row>
@@ -824,7 +845,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/parkir.xlsx
+++ b/data/parkir.xlsx
@@ -453,16 +453,16 @@
         <v>KP002</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>AB 1784 JK</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Vespa</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>Truk/Bus/Lainnya</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>2025-06-29 16:12:39</v>
       </c>
       <c r="F3" t="str">
         <v/>
@@ -568,18 +568,21 @@
         <v>KP007</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>A 123 BB</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>verio</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>Truk/Bus/Lainnya</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>2025-06-29 21:43:17</v>
       </c>
       <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
         <v/>
       </c>
     </row>

--- a/data/parkir.xlsx
+++ b/data/parkir.xlsx
@@ -427,16 +427,16 @@
         <v>KP001</v>
       </c>
       <c r="B2" t="str">
-        <v>AB 2025 CD</v>
+        <v>AA 888 BB</v>
       </c>
       <c r="C2" t="str">
-        <v>Honda</v>
+        <v>vespa</v>
       </c>
       <c r="D2" t="str">
         <v>mobil</v>
       </c>
       <c r="E2" t="str">
-        <v>2025-07-02 00:23:24</v>
+        <v>2025-07-02 01:16:03</v>
       </c>
       <c r="F2" t="str">
         <v>1</v>
@@ -447,16 +447,16 @@
         <v>KP002</v>
       </c>
       <c r="B3" t="str">
-        <v>AB 2025 CD</v>
+        <v>Z 00 H</v>
       </c>
       <c r="C3" t="str">
-        <v>Honda</v>
+        <v>ninja</v>
       </c>
       <c r="D3" t="str">
-        <v>mobil</v>
+        <v>motor</v>
       </c>
       <c r="E3" t="str">
-        <v>2025-07-02 00:23:25</v>
+        <v>2025-07-02 01:16:17</v>
       </c>
       <c r="F3" t="str">
         <v>1</v>
@@ -467,16 +467,16 @@
         <v>KP003</v>
       </c>
       <c r="B4" t="str">
-        <v>AB 2025 CD</v>
+        <v>B 77 RA</v>
       </c>
       <c r="C4" t="str">
-        <v>Honda</v>
+        <v>crv</v>
       </c>
       <c r="D4" t="str">
         <v>mobil</v>
       </c>
       <c r="E4" t="str">
-        <v>2025-07-02 00:23:25</v>
+        <v>2025-07-02 01:16:32</v>
       </c>
       <c r="F4" t="str">
         <v>1</v>
@@ -487,16 +487,16 @@
         <v>KP004</v>
       </c>
       <c r="B5" t="str">
-        <v>AB 2025 CD</v>
+        <v>F 412 HAN</v>
       </c>
       <c r="C5" t="str">
-        <v>Honda</v>
+        <v>vario</v>
       </c>
       <c r="D5" t="str">
-        <v>mobil</v>
+        <v>motor</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-07-02 00:23:25</v>
+        <v>2025-07-02 01:16:47</v>
       </c>
       <c r="F5" t="str">
         <v>1</v>
@@ -507,16 +507,16 @@
         <v>KP005</v>
       </c>
       <c r="B6" t="str">
-        <v>AB 2025 CD</v>
+        <v>G 64 POL</v>
       </c>
       <c r="C6" t="str">
-        <v>Honda</v>
+        <v>hilux</v>
       </c>
       <c r="D6" t="str">
         <v>mobil</v>
       </c>
       <c r="E6" t="str">
-        <v>2025-07-02 00:23:25</v>
+        <v>2025-07-02 01:17:01</v>
       </c>
       <c r="F6" t="str">
         <v>1</v>
@@ -527,16 +527,16 @@
         <v>KP006</v>
       </c>
       <c r="B7" t="str">
-        <v>AB 2025 XZ</v>
+        <v>G 45 HAN</v>
       </c>
       <c r="C7" t="str">
-        <v>Honda</v>
+        <v>hilux</v>
       </c>
       <c r="D7" t="str">
         <v>mobil</v>
       </c>
       <c r="E7" t="str">
-        <v>2025-07-02 00:23:33</v>
+        <v>2025-07-02 01:17:12</v>
       </c>
       <c r="F7" t="str">
         <v>1</v>
@@ -807,19 +807,19 @@
         <v>KP020</v>
       </c>
       <c r="B21" t="str">
-        <v/>
+        <v>AA 88 II</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>bmw</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>mobil</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>2025-07-02 01:24:13</v>
       </c>
       <c r="F21" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
